--- a/SH_nais_einheiten_unique_v3_mf.xlsx
+++ b/SH_nais_einheiten_unique_v3_mf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB822A-84DB-49EE-8D07-68023FFC7570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE070B8D-58AD-453E-A8E3-482F31B8347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49590" yWindow="1320" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,9 +403,6 @@
     <t>nais2</t>
   </si>
   <si>
-    <t>nais</t>
-  </si>
-  <si>
     <t>hs</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>9a/35</t>
+  </si>
+  <si>
+    <t>nais_alt</t>
   </si>
 </sst>
 </file>
@@ -845,18 +845,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="6" width="9.109375" style="2"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -864,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>124</v>
@@ -873,10 +874,10 @@
         <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9252</v>
       </c>
@@ -890,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>496</v>
       </c>
@@ -907,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -918,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -927,10 +928,10 @@
         <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4514</v>
       </c>
@@ -944,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2489</v>
       </c>
@@ -961,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6155</v>
       </c>
@@ -978,10 +979,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9070</v>
       </c>
@@ -998,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8661</v>
       </c>
@@ -1018,10 +1019,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>551</v>
       </c>
@@ -1035,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8658</v>
       </c>
@@ -1052,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3905</v>
       </c>
@@ -1069,10 +1070,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>291</v>
       </c>
@@ -1086,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3907</v>
       </c>
@@ -1103,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>236</v>
       </c>
@@ -1120,10 +1121,10 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6762</v>
       </c>
@@ -1131,16 +1132,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>836</v>
       </c>
@@ -1154,10 +1155,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9010</v>
       </c>
@@ -1171,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4038</v>
       </c>
@@ -1188,10 +1189,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>86</v>
       </c>
@@ -1199,16 +1200,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8613</v>
       </c>
@@ -1222,10 +1223,10 @@
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9231</v>
       </c>
@@ -1239,10 +1240,10 @@
         <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8687</v>
       </c>
@@ -1256,10 +1257,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8510</v>
       </c>
@@ -1273,10 +1274,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6191</v>
       </c>
@@ -1290,10 +1291,10 @@
         <v>23</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6772</v>
       </c>
@@ -1307,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>810</v>
       </c>
@@ -1324,10 +1325,10 @@
         <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>49</v>
       </c>
@@ -1341,10 +1342,10 @@
         <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8809</v>
       </c>
@@ -1358,10 +1359,10 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9187</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="2">
         <v>14</v>
@@ -1378,10 +1379,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>69</v>
       </c>
@@ -1395,10 +1396,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9487</v>
       </c>
@@ -1415,10 +1416,10 @@
         <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>6776</v>
       </c>
@@ -1432,10 +1433,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11298</v>
       </c>
@@ -1449,10 +1450,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8996</v>
       </c>
@@ -1466,10 +1467,10 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4605</v>
       </c>
@@ -1483,10 +1484,10 @@
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10663</v>
       </c>
@@ -1500,10 +1501,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6360</v>
       </c>
@@ -1517,10 +1518,10 @@
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6144</v>
       </c>
@@ -1534,10 +1535,10 @@
         <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6287</v>
       </c>
@@ -1551,10 +1552,10 @@
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8531</v>
       </c>
@@ -1568,10 +1569,10 @@
         <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>890</v>
       </c>
@@ -1585,10 +1586,10 @@
         <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4536</v>
       </c>
@@ -1602,10 +1603,10 @@
         <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4594</v>
       </c>
@@ -1619,10 +1620,10 @@
         <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>11334</v>
       </c>
@@ -1636,10 +1637,10 @@
         <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9066</v>
       </c>
@@ -1653,10 +1654,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>150</v>
       </c>
@@ -1670,10 +1671,10 @@
         <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3191</v>
       </c>
@@ -1687,10 +1688,10 @@
         <v>41</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3904</v>
       </c>
@@ -1704,10 +1705,10 @@
         <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10682</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2">
         <v>26</v>
@@ -1724,10 +1725,10 @@
         <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>130</v>
       </c>
@@ -1741,10 +1742,10 @@
         <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>9934</v>
       </c>
@@ -1758,10 +1759,10 @@
         <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>116</v>
       </c>
@@ -1775,10 +1776,10 @@
         <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>9045</v>
       </c>
@@ -1786,16 +1787,16 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10687</v>
       </c>
@@ -1803,16 +1804,16 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>542</v>
       </c>
@@ -1826,10 +1827,10 @@
         <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>9882</v>
       </c>
@@ -1843,10 +1844,10 @@
         <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1423</v>
       </c>
@@ -1860,10 +1861,10 @@
         <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11301</v>
       </c>
@@ -1871,16 +1872,16 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1984</v>
       </c>
@@ -1894,10 +1895,10 @@
         <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>794</v>
       </c>
@@ -1911,10 +1912,10 @@
         <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -1928,10 +1929,10 @@
         <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>11352</v>
       </c>
@@ -1945,10 +1946,10 @@
         <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>10689</v>
       </c>
@@ -1962,10 +1963,10 @@
         <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>11124</v>
       </c>
@@ -1979,10 +1980,10 @@
         <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>4595</v>
       </c>
@@ -1996,10 +1997,10 @@
         <v>65</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>4231</v>
       </c>
@@ -2013,10 +2014,10 @@
         <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2280</v>
       </c>
@@ -2030,10 +2031,10 @@
         <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3413</v>
       </c>
@@ -2047,10 +2048,10 @@
         <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>4521</v>
       </c>
@@ -2064,10 +2065,10 @@
         <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>11311</v>
       </c>
@@ -2081,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>4630</v>
       </c>
@@ -2098,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>8858</v>
       </c>
@@ -2115,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>11346</v>
       </c>
@@ -2132,10 +2133,10 @@
         <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>10680</v>
       </c>
@@ -2149,10 +2150,10 @@
         <v>6</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1204</v>
       </c>
@@ -2166,10 +2167,10 @@
         <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>437</v>
       </c>
@@ -2183,10 +2184,10 @@
         <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>11224</v>
       </c>
@@ -2200,10 +2201,10 @@
         <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>3911</v>
       </c>
@@ -2217,10 +2218,10 @@
         <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>9942</v>
       </c>
@@ -2234,10 +2235,10 @@
         <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1930</v>
       </c>
@@ -2245,16 +2246,16 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>9023</v>
       </c>
@@ -2262,16 +2263,16 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>7789</v>
       </c>
@@ -2285,10 +2286,10 @@
         <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>9468</v>
       </c>
@@ -2302,10 +2303,10 @@
         <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>6534</v>
       </c>
@@ -2319,10 +2320,10 @@
         <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>8663</v>
       </c>
@@ -2336,10 +2337,10 @@
         <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8895</v>
       </c>
@@ -2353,10 +2354,10 @@
         <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3149</v>
       </c>
@@ -2364,19 +2365,19 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9936</v>
       </c>
@@ -2384,19 +2385,19 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>3375</v>
       </c>
@@ -2410,10 +2411,10 @@
         <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>26</v>
       </c>
@@ -2427,10 +2428,10 @@
         <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>5718</v>
       </c>
@@ -2444,10 +2445,10 @@
         <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>11355</v>
       </c>
@@ -2461,10 +2462,10 @@
         <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2220</v>
       </c>
@@ -2478,10 +2479,10 @@
         <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>129</v>
       </c>
@@ -2495,10 +2496,10 @@
         <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>11126</v>
       </c>
@@ -2512,10 +2513,10 @@
         <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>7166</v>
       </c>
@@ -2529,10 +2530,10 @@
         <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2008</v>
       </c>
@@ -2546,10 +2547,10 @@
         <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>8688</v>
       </c>
@@ -2563,10 +2564,10 @@
         <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>303</v>
       </c>
@@ -2580,10 +2581,10 @@
         <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>6365</v>
       </c>
@@ -2597,10 +2598,10 @@
         <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>6779</v>
       </c>
@@ -2614,10 +2615,10 @@
         <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>11123</v>
       </c>
@@ -2631,10 +2632,10 @@
         <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>11330</v>
       </c>
@@ -2642,16 +2643,16 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>9476</v>
       </c>
@@ -2665,10 +2666,10 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2089</v>
       </c>
@@ -2682,10 +2683,10 @@
         <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>3477</v>
       </c>
@@ -2699,10 +2700,10 @@
         <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>4518</v>
       </c>
@@ -2716,10 +2717,10 @@
         <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>7548</v>
       </c>
@@ -2727,16 +2728,16 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>164</v>
       </c>
@@ -2744,16 +2745,16 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>4538</v>
       </c>
@@ -2761,19 +2762,19 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2">
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>4599</v>
       </c>
@@ -2781,19 +2782,19 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2">
         <v>35</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>95</v>
       </c>
@@ -2801,16 +2802,16 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2484</v>
       </c>
@@ -2818,16 +2819,16 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>7924</v>
       </c>
@@ -2835,16 +2836,16 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>8669</v>
       </c>
@@ -2852,19 +2853,19 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2">
         <v>11</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>10683</v>
       </c>
@@ -2872,19 +2873,19 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2">
         <v>11</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>8678</v>
       </c>
@@ -2901,10 +2902,10 @@
         <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>6746</v>
       </c>
@@ -2915,10 +2916,10 @@
         <v>118</v>
       </c>
       <c r="G119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>10187</v>
       </c>
@@ -2929,10 +2930,10 @@
         <v>119</v>
       </c>
       <c r="G120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>84</v>
       </c>
@@ -2946,10 +2947,10 @@
         <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>8747</v>
       </c>
@@ -2963,10 +2964,10 @@
         <v>89</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>8116</v>
       </c>
@@ -2977,11 +2978,15 @@
         <v>122</v>
       </c>
       <c r="G123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:F123" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:F123" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>